--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626740.864309025</v>
+        <v>1623723.273908088</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>212.8719871951473</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>222.353642774246</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>112.9560461926465</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>187.5777956236143</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>82.79076287901478</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.9895902233669</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>118.2567787166056</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>62.95686178266489</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.70191565295202</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.3370797092942</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.14757544257668</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>18.60826027245578</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>192.3082080654541</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>2.654169196207881</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>11.82150965373844</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>147.4019814764073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>140.5678108961698</v>
+        <v>139.7568420184996</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>276.2330889766189</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3709,16 +3709,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>146.1854691670917</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3916,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>272.349220411246</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4034,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4150,10 +4150,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.4019814764073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1097.914903999813</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>686.9289992102051</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>268.965191108392</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2198.886095354873</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2198.886095354873</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2198.886095354873</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.280131569335</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.280131569335</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>732.491878971091</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>321.5059741814834</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2452.647880716782</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>500.1394333084169</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>352.2263397260238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>352.2263397260238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>183.2265394643562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>611.4940911310146</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2304.034442887843</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1972.971555544273</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.8539665087372</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C10" t="n">
-        <v>154.8539665087372</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D10" t="n">
-        <v>154.8539665087372</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="E10" t="n">
-        <v>154.8539665087372</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="F10" t="n">
-        <v>154.8539665087372</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>154.8539665087372</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>154.8539665087372</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087372</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>154.8539665087372</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>154.8539665087372</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.8539665087372</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1564.731711769081</v>
       </c>
       <c r="N12" t="n">
         <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434021</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562257</v>
       </c>
       <c r="D13" t="n">
         <v>822.1480540508779</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5242,7 +5242,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5473,13 +5473,13 @@
         <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5838,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X22" t="n">
-        <v>1432.107328986838</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.314749843308</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.2349604684848</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="C25" t="n">
-        <v>674.2349604684848</v>
+        <v>840.6429075085871</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684848</v>
+        <v>690.5262680962513</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>542.6131745138582</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>395.7232270159478</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>227.5479053357684</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>1304.665555340272</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X25" t="n">
-        <v>1076.676004442255</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y25" t="n">
-        <v>855.8834252987245</v>
+        <v>1009.579090436494</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3630.011694582923</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C28" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D28" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
         <v>3459.155393916675</v>
@@ -6394,40 +6394,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.85945949167</v>
+        <v>4633.687647031309</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.85945949167</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="W28" t="n">
-        <v>4260.44228945471</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X28" t="n">
-        <v>4032.452738556693</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y28" t="n">
-        <v>3811.660159413163</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6497,7 +6497,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4241.186579017402</v>
+        <v>3617.986260256746</v>
       </c>
       <c r="C31" t="n">
-        <v>4072.250396089494</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="D31" t="n">
-        <v>3922.133756677159</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="E31" t="n">
-        <v>3774.220663094765</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
         <v>3459.155393916676</v>
@@ -6655,16 +6655,16 @@
         <v>4571.72593422785</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.72593422785</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.72593422785</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X31" t="n">
-        <v>4571.72593422785</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y31" t="n">
-        <v>4422.835043847641</v>
+        <v>3799.634725086986</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4184.086356507268</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>4184.086356507268</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507268</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916676</v>
@@ -6889,19 +6889,19 @@
         <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>4184.086356507268</v>
+        <v>4184.905516989763</v>
       </c>
       <c r="V34" t="n">
-        <v>4184.086356507268</v>
+        <v>3930.221028783876</v>
       </c>
       <c r="W34" t="n">
-        <v>4184.086356507268</v>
+        <v>3640.803858746915</v>
       </c>
       <c r="X34" t="n">
-        <v>4184.086356507268</v>
+        <v>3640.803858746915</v>
       </c>
       <c r="Y34" t="n">
-        <v>4184.086356507268</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,13 +6959,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.139178847509</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4503.139178847509</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4503.139178847509</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V37" t="n">
-        <v>4503.139178847509</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W37" t="n">
-        <v>4503.139178847509</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X37" t="n">
-        <v>4503.139178847509</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y37" t="n">
-        <v>4503.139178847509</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705745</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705745</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705745</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7327,7 +7327,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>527.3450129705745</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705745</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705745</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705745</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7597,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1000.030632709786</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1000.030632709786</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>167.8887746690279</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4241.186579017402</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C46" t="n">
-        <v>4072.250396089494</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D46" t="n">
-        <v>3922.133756677159</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094765</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y46" t="n">
-        <v>4422.835043847641</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.8724419039342</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.6598726146251</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>32.78140656352434</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>29.47535963978225</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.27839330891811</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.6844047393606</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.3055680950804</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>94.21479027113693</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>164.59265190242</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>155.4253114448894</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.1826718756875</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>145.6695415024076</v>
+        <v>146.4805103800778</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>175.2944832206708</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>10.0042634219584</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,16 +25597,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>105.9521741567363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25837,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>13.88813198733135</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.1826718756875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26485,13 +26485,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26500,10 +26500,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336561.6391011396</v>
+        <v>-336976.8536106068</v>
       </c>
       <c r="C6" t="n">
-        <v>253406.240113405</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.2401134051</v>
+        <v>252991.0256039375</v>
       </c>
       <c r="E6" t="n">
-        <v>-162623.9913946719</v>
+        <v>-162958.1603618011</v>
       </c>
       <c r="F6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="G6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="H6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="I6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150949</v>
       </c>
       <c r="J6" t="n">
-        <v>186112.8258896313</v>
+        <v>185778.6569225017</v>
       </c>
       <c r="K6" t="n">
-        <v>362536.0450822244</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="L6" t="n">
-        <v>362536.0450822244</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="M6" t="n">
-        <v>227735.0298483872</v>
+        <v>227400.8608812576</v>
       </c>
       <c r="N6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="O6" t="n">
-        <v>362536.0450822244</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="P6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>111.0507855692099</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>28.87052473404333</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>89.56002855569147</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.8281238281485</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>28.87052473404344</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>73.38012596278037</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>136.6690991791626</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.74425144011371</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>132.9673887916837</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>82.46418624026636</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>80.2637061393862</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>220.2054057751875</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>441.2361441450423</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890071</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>250.7532875461497</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195486</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.38553859468891</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1623723.273908088</v>
+        <v>1699252.943572893</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>135.40953526816</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>212.8719871951473</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>132.7124763329801</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>217.5593366542951</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5777956236143</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.9813484077757</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>115.4685441446654</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>118.2567787166056</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>357.9451499147349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>62.95686178266489</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3370797092942</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>209.6760738829269</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.60826027245578</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>152.6276470398227</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>157.2425576766705</v>
       </c>
       <c r="U28" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>11.82150965373844</v>
+        <v>24.37013941318898</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.11742795012924</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>139.7568420184996</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>276.2330889766189</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>24.98000491003392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>88.52416382797658</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
-        <v>272.349220411246</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>110.1707519847953</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.703156598057</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C2" t="n">
-        <v>1483.703156598057</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D2" t="n">
-        <v>1483.703156598057</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1097.914903999813</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>686.9289992102051</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>268.965191108392</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>416.5124000972908</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>768.2839875620903</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>768.2839875620903</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>768.2839875620903</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>768.2839875620903</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2452.647880716782</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2198.886095354873</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2198.886095354873</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2198.886095354873</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2198.886095354873</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="V7" t="n">
-        <v>611.4940911310146</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="W7" t="n">
-        <v>611.4940911310146</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329973</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.034442887843</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1972.971555544273</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1620.202900274159</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.202900274159</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.1920961943572</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C10" t="n">
-        <v>332.1920961943572</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D10" t="n">
-        <v>332.1920961943572</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E10" t="n">
-        <v>332.1920961943572</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766199</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769081</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562257</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
         <v>822.1480540508779</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5242,7 +5244,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,19 +5299,19 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5343,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5841,10 +5843,10 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916676</v>
@@ -5932,28 +5934,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>4520.375241843983</v>
+        <v>4338.065445468512</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.246603057541</v>
+        <v>4338.065445468512</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851654</v>
+        <v>4338.065445468512</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814693</v>
+        <v>4338.065445468512</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>4110.075894570495</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1009.579090436494</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C25" t="n">
-        <v>840.6429075085871</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>690.5262680962513</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>542.6131745138582</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>395.7232270159478</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>227.5479053357684</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.579090436494</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="Y25" t="n">
-        <v>1009.579090436494</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6394,37 +6396,37 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>4702.023706674221</v>
       </c>
       <c r="U28" t="n">
-        <v>4633.687647031309</v>
+        <v>4412.895067887779</v>
       </c>
       <c r="V28" t="n">
-        <v>4379.003158825422</v>
+        <v>4158.210579681892</v>
       </c>
       <c r="W28" t="n">
-        <v>4089.585988788462</v>
+        <v>3868.793409644932</v>
       </c>
       <c r="X28" t="n">
-        <v>3861.596437890445</v>
+        <v>3640.803858746915</v>
       </c>
       <c r="Y28" t="n">
         <v>3640.803858746915</v>
@@ -6458,16 +6460,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,25 +6481,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3617.986260256746</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C31" t="n">
-        <v>3606.045341414586</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414586</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985003</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X31" t="n">
-        <v>3799.634725086986</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y31" t="n">
-        <v>3799.634725086986</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916676</v>
@@ -6880,28 +6882,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>4184.905516989763</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V34" t="n">
-        <v>3930.221028783876</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W34" t="n">
-        <v>3640.803858746915</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X34" t="n">
-        <v>3640.803858746915</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>3922.735262851337</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>1219.892948359297</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V37" t="n">
-        <v>965.2084601534104</v>
+        <v>4011.713077302781</v>
       </c>
       <c r="W37" t="n">
-        <v>675.7912901164499</v>
+        <v>4011.713077302781</v>
       </c>
       <c r="X37" t="n">
-        <v>447.8017392184325</v>
+        <v>4011.713077302781</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184325</v>
+        <v>3790.920498159251</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7184,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>186.6354387612723</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X40" t="n">
-        <v>1387.841167119728</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1000.030632709786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1000.030632709786</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>710.6134626728254</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>710.6134626728254</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,43 +7633,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1096.475226584133</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="C46" t="n">
-        <v>927.5390436562259</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D46" t="n">
-        <v>777.4224042438901</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E46" t="n">
-        <v>629.509310661497</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F46" t="n">
-        <v>482.6193631635866</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G46" t="n">
-        <v>314.4440414834072</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H46" t="n">
-        <v>164.0260330313505</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="Y46" t="n">
-        <v>1278.123691414372</v>
+        <v>3925.661817631305</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.8724419039342</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>32.78140656352434</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.27839330891811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>11.87148717546233</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3055680950804</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.8953512967683</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171873</v>
       </c>
       <c r="U28" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4253114448894</v>
+        <v>142.8766816854389</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.303620072802</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>146.4805103800778</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>10.0042634219584</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>227.1576384137941</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>60.09130919023578</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
-        <v>13.88813198733135</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>44.278393308918</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>141.9668913390327</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="14">
@@ -26314,16 +26316,16 @@
         <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
@@ -26335,16 +26337,16 @@
         <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852505</v>
@@ -26353,7 +26355,7 @@
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26479,7 +26481,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26493,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106068</v>
+        <v>-336976.853610607</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039375</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039375</v>
+        <v>252991.0256039379</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618011</v>
+        <v>-162958.1603618014</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150947</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="H6" t="n">
         <v>362201.8761150948</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150949</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="J6" t="n">
         <v>185778.6569225017</v>
@@ -26561,7 +26563,7 @@
         <v>362201.8761150948</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.8761150946</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26759,7 +26761,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>219.273506352523</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>111.0507855692099</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>79.43306261703884</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>89.56002855569147</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>189.3167090874163</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>28.87052473404344</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27819,10 +27821,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>6.164190542243233</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>136.6690991791626</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>132.9673887916837</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>11.78595076373415</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>82.46418624026636</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.71149628510288</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>441.2361441450423</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36437,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>309.5875389014639</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36449,10 +36451,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>282.0391115195486</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699252.943572893</v>
+        <v>1692235.928681182</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>135.40953526816</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>142.9583922661623</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>132.7124763329801</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.25292425643942</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>217.5593366542951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>74.62372476861216</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.9813484077757</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>139.1804672355044</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>357.9451499147349</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>83.59830597394803</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>18.37682225755695</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.4743733236638</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>174.2193782637882</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385015</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>197.6165621654129</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>129.3266990429028</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>209.6760738829269</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6276470398227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2425576766705</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603052</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.37013941318898</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>94.16481274941241</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.11742795012924</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>24.98000491003392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4.012178247056682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>88.52416382797658</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.883827626212</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.883827626212</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2376.569186901926</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.883827626212</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.5124000972908</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C4" t="n">
-        <v>416.5124000972908</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>416.5124000972908</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>416.5124000972908</v>
+        <v>702.6209799070007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.2839875620903</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>768.2839875620903</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>768.2839875620903</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>768.2839875620903</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2621.771591251948</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2403.136924224011</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.9203575519559</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>991.3034697491298</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>605.5152171508855</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>194.529312361278</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>138.3857151273827</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.3857151273827</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5129,16 +5129,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684848</v>
@@ -5433,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1123.017090510032</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1123.017090510032</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>1123.017090510032</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,10 +5594,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
         <v>891.4406401619858</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.9054447954965</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954965</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9054447954965</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3889.283315426964</v>
+        <v>672.7698012891906</v>
       </c>
       <c r="C22" t="n">
-        <v>3889.283315426964</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>3889.283315426964</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426964</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4338.065445468512</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4338.065445468512</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>4338.065445468512</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>4338.065445468512</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X22" t="n">
-        <v>4110.075894570495</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3889.283315426964</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>3628.091576844583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>3628.091576844583</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>3628.091576844583</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4702.023706674221</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4412.895067887779</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4158.210579681892</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>3868.793409644932</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>3640.803858746915</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>3640.803858746915</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.3977182706318</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C31" t="n">
-        <v>506.7814158330672</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X31" t="n">
-        <v>531.3977182706318</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.3977182706318</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6703,13 +6703,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3922.735262851337</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.735262851337</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.735262851337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3922.735262851337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4660.934562929845</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4660.934562929845</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4371.517392892884</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4143.527841994867</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.735262851337</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3609.272033329011</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.272033329011</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4011.713077302781</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.713077302781</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X37" t="n">
-        <v>4011.713077302781</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y37" t="n">
-        <v>3790.920498159251</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>355.5716216891792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>986.0022165609664</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>537.2200865194189</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
         <v>1247.466478653857</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631305</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631305</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631305</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631305</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631305</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631305</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.2352820653734</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>112.0179741347891</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>20.9680911866819</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>37.92012205572499</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>11.87148717546233</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.8953512967683</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.30500338171873</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.8766816854389</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>16.25443271485959</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>112.303620072802</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.1576384137941</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>282.5108200895343</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>60.09130919023578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390327</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="15">
@@ -26316,25 +26316,25 @@
         <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
@@ -26346,16 +26346,16 @@
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-336976.853610607</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039375</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039379</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618014</v>
+        <v>-163932.7516215229</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.284855373</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.284855373</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225017</v>
+        <v>184804.0656627801</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.284855373</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.284855373</v>
       </c>
       <c r="M6" t="n">
-        <v>227400.8608812576</v>
+        <v>226426.269621536</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.284855373</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553731</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>219.273506352523</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>73.48992809149553</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>79.43306261703884</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.3317290956554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>189.3167090874163</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>99.79198804035934</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0.612419542770656</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>6.164190542243233</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>274.6037027852906</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.78595076373415</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.71149628510288</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>10.74592769735732</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38104,7 +38104,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692235.928681182</v>
+        <v>1697175.191530214</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>195.9544420980504</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>142.9583922661623</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.25292425643942</v>
+        <v>25.2529242564392</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>227.6599794570907</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>74.62372476861216</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>46.80807769362095</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.51033041214364</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>139.1804672355044</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.37682225755695</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.4743733236638</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>174.2193782637882</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385015</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.6165621654129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>129.3266990429028</v>
+        <v>164.4117978075328</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>250.0068403603052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>134.5037389394473</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>136.1203916976713</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16481274941241</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>192.6211591710424</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.277719722116939</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3444,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>4.012178247056682</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.75667980149156</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>117.0662618686607</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.6534898356754</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1234.292450613716</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>823.3065458241085</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>405.3427377222954</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2376.569186901926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
         <v>702.6209799070007</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4564,13 +4564,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2621.771591251948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2403.136924224011</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.56916835588</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.56916835588</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>991.3034697491298</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>605.5152171508855</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>194.529312361278</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.5665374816297</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>709.5665374816297</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>709.5665374816297</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>709.5665374816297</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.5665374816297</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.274692278279</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.814757496976</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P12" t="n">
         <v>2446.115379232724</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5241,10 +5241,10 @@
         <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184324</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5357,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1123.017090510032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1123.017090510032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.017090510032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>895.0275396120149</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
         <v>266.1532743881928</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.7698012891906</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
         <v>392.0201325405893</v>
@@ -5943,19 +5943,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X22" t="n">
-        <v>1075.21084526296</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y22" t="n">
-        <v>854.4182661194303</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -6071,19 +6071,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.9038434870658</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>216.9038434870658</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>462.7283310300503</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8655562905255</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192.3330639344398</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C31" t="n">
-        <v>192.3330639344398</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>192.3330639344398</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>192.3330639344398</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>192.3330639344398</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>192.3330639344398</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>192.3330639344398</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>420.3226148324571</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3330639344398</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.3330639344398</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,16 +6700,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>247.3337308726216</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6964,7 +6964,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705745</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705745</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705745</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705745</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>215.4658408225694</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1305.326886885503</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.198248099061</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>761.5137598931742</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>472.0965898562135</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.23759968302141</v>
+        <v>91.23759968302093</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.2352820653734</v>
+        <v>14.74113413690304</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>112.0179741347891</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.9680911866819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>37.92012205572499</v>
+        <v>2.835023291094984</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>36.51615797628583</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>91.20591644958981</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>43.71158848426597</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>16.25443271485959</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>33.08849621799476</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>164.9691013765109</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>282.5108200895343</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>198.8279735506032</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>31.84756649887542</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>29.89407122271382</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26316,28 +26316,28 @@
         <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852504</v>
@@ -26346,16 +26346,16 @@
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.853610607</v>
+        <v>-336976.8536106069</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="E6" t="n">
-        <v>-163932.7516215229</v>
+        <v>-163055.6194877738</v>
       </c>
       <c r="F6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="G6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="H6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="I6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="J6" t="n">
-        <v>184804.0656627801</v>
+        <v>185681.1977965297</v>
       </c>
       <c r="K6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="L6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="M6" t="n">
-        <v>226426.269621536</v>
+        <v>227303.4017552855</v>
       </c>
       <c r="N6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891227</v>
       </c>
       <c r="O6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="P6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891223</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>127.9683306663068</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>73.48992809149553</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.3317290956554</v>
+        <v>193.3317290956556</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>155.0738622063899</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>99.79198804035934</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>109.3628111481742</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.612419542770656</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>274.6037027852906</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.94024844645424</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.882105749397248</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.74592769735732</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.2506324680955</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36439,22 +36439,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>327.2930933377847</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
